--- a/medicine/Psychotrope/Super_Bock/Super_Bock.xlsx
+++ b/medicine/Psychotrope/Super_Bock/Super_Bock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Super Bock est une entreprise de bière portugaise fondée à Porto en 1927. Elle appartient au groupe Super Bock Group (pt).
@@ -517,7 +529,9 @@
           <t>Styles de bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Original : (5,2 %) blonde
 Classica : (5,8 %) blonde
@@ -555,10 +569,12 @@
           <t>Médailles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a gagné 37 médailles consécutives. C'est une des bières les plus médaillées au monde.
-Elle reste la bière emblématique et la plus consommée dans le Nord du Portugal[1].
+Elle reste la bière emblématique et la plus consommée dans le Nord du Portugal.
 </t>
         </is>
       </c>
@@ -587,7 +603,9 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle sponsorise le festival de rock et de metal Super Bock Super Rock.
 Wayne Rooney a fait la publicité de la bière en 2004 lors de l'Euro 2004 en rajoutant : La Super Bock est la meilleure des bières.
